--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N2">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O2">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P2">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q2">
-        <v>19.47665650102</v>
+        <v>15.754333344282</v>
       </c>
       <c r="R2">
-        <v>175.28990850918</v>
+        <v>141.789000098538</v>
       </c>
       <c r="S2">
-        <v>0.006925743455388112</v>
+        <v>0.006215826314929874</v>
       </c>
       <c r="T2">
-        <v>0.007813318816861257</v>
+        <v>0.006803118024455706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
         <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P3">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q3">
-        <v>57.71534651718222</v>
+        <v>39.668464365708</v>
       </c>
       <c r="R3">
-        <v>519.43811865464</v>
+        <v>357.0161792913719</v>
       </c>
       <c r="S3">
-        <v>0.02052311614141258</v>
+        <v>0.01565107702679902</v>
       </c>
       <c r="T3">
-        <v>0.02315327597119924</v>
+        <v>0.01712984224919777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N4">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O4">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P4">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q4">
-        <v>71.8524939828911</v>
+        <v>84.643129885332</v>
       </c>
       <c r="R4">
-        <v>646.6724458460199</v>
+        <v>761.788168967988</v>
       </c>
       <c r="S4">
-        <v>0.02555017284045958</v>
+        <v>0.03339570025730289</v>
       </c>
       <c r="T4">
-        <v>0.02882457999120806</v>
+        <v>0.03655103583156354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N5">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O5">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P5">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q5">
-        <v>81.36257720597334</v>
+        <v>38.43980740752301</v>
       </c>
       <c r="R5">
-        <v>488.17546323584</v>
+        <v>230.638844445138</v>
       </c>
       <c r="S5">
-        <v>0.02893188245981898</v>
+        <v>0.01516631400409201</v>
       </c>
       <c r="T5">
-        <v>0.02175978392179259</v>
+        <v>0.01106618481471704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N6">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O6">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P6">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q6">
-        <v>139.8806233007089</v>
+        <v>43.213284580776</v>
       </c>
       <c r="R6">
-        <v>1258.92560970638</v>
+        <v>388.919561226984</v>
       </c>
       <c r="S6">
-        <v>0.04974043215835116</v>
+        <v>0.01704967551351393</v>
       </c>
       <c r="T6">
-        <v>0.05611496542501906</v>
+        <v>0.01866058491990156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N7">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O7">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P7">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q7">
-        <v>37.47402338612901</v>
+        <v>44.102363852118</v>
       </c>
       <c r="R7">
-        <v>337.266210475161</v>
+        <v>396.921274669062</v>
       </c>
       <c r="S7">
-        <v>0.01332546334120294</v>
+        <v>0.01740045914936178</v>
       </c>
       <c r="T7">
-        <v>0.01503320100403304</v>
+        <v>0.01904451174713427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
         <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P8">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q8">
-        <v>111.0471011803365</v>
+        <v>111.0471011803364</v>
       </c>
       <c r="R8">
-        <v>999.4239106230281</v>
+        <v>999.4239106230278</v>
       </c>
       <c r="S8">
-        <v>0.03948746203945525</v>
+        <v>0.04381331019404511</v>
       </c>
       <c r="T8">
-        <v>0.04454801598851322</v>
+        <v>0.04795293581100327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N9">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O9">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P9">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q9">
-        <v>138.2476525026532</v>
+        <v>236.9482751321791</v>
       </c>
       <c r="R9">
-        <v>1244.228872523879</v>
+        <v>2132.534476189612</v>
       </c>
       <c r="S9">
-        <v>0.04915976078814541</v>
+        <v>0.09348725151727243</v>
       </c>
       <c r="T9">
-        <v>0.05545987755286991</v>
+        <v>0.1023202344515888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N10">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O10">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P10">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q10">
-        <v>156.5455097907947</v>
+        <v>107.607623607077</v>
       </c>
       <c r="R10">
-        <v>939.2730587447682</v>
+        <v>645.6457416424621</v>
       </c>
       <c r="S10">
-        <v>0.05566633266070141</v>
+        <v>0.04245627433970117</v>
       </c>
       <c r="T10">
-        <v>0.04186687029776725</v>
+        <v>0.0309784551645639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N11">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O11">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P11">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q11">
-        <v>269.1370435455668</v>
+        <v>120.9703995833129</v>
       </c>
       <c r="R11">
-        <v>2422.233391910101</v>
+        <v>1088.733596249816</v>
       </c>
       <c r="S11">
-        <v>0.09570298258536301</v>
+        <v>0.04772851866375227</v>
       </c>
       <c r="T11">
-        <v>0.1079678910257958</v>
+        <v>0.05223806605117583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N12">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O12">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P12">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q12">
-        <v>35.622793462492</v>
+        <v>51.199419756186</v>
       </c>
       <c r="R12">
-        <v>320.605141162428</v>
+        <v>460.794777805674</v>
       </c>
       <c r="S12">
-        <v>0.01266718076958311</v>
+        <v>0.02020058187642375</v>
       </c>
       <c r="T12">
-        <v>0.01429055559177082</v>
+        <v>0.02210919927699784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
         <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P13">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q13">
-        <v>105.5613353601049</v>
+        <v>128.9170613417506</v>
       </c>
       <c r="R13">
-        <v>950.052018240944</v>
+        <v>1160.253552075756</v>
       </c>
       <c r="S13">
-        <v>0.03753676753882211</v>
+        <v>0.05086385090501604</v>
       </c>
       <c r="T13">
-        <v>0.04234732834451925</v>
+        <v>0.05566963479240107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N14">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O14">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P14">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q14">
-        <v>131.4181698888324</v>
+        <v>275.0785477095027</v>
       </c>
       <c r="R14">
-        <v>1182.763528999492</v>
+        <v>2475.706929385524</v>
       </c>
       <c r="S14">
-        <v>0.04673125133048367</v>
+        <v>0.108531439456053</v>
       </c>
       <c r="T14">
-        <v>0.05272014011317135</v>
+        <v>0.1187858467361193</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N15">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O15">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P15">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q15">
-        <v>148.8121065970774</v>
+        <v>124.924094964579</v>
       </c>
       <c r="R15">
-        <v>892.8726395824641</v>
+        <v>749.544569787474</v>
       </c>
       <c r="S15">
-        <v>0.05291639626612771</v>
+        <v>0.04928843765588215</v>
       </c>
       <c r="T15">
-        <v>0.03979863219305003</v>
+        <v>0.0359635808794073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N16">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O16">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P16">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q16">
-        <v>255.8415790197276</v>
+        <v>140.4372402147813</v>
       </c>
       <c r="R16">
-        <v>2302.574211177548</v>
+        <v>1263.935161933032</v>
       </c>
       <c r="S16">
-        <v>0.09097522161564249</v>
+        <v>0.05540910391108329</v>
       </c>
       <c r="T16">
-        <v>0.1026342392692322</v>
+        <v>0.06064433824848315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N17">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O17">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P17">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q17">
-        <v>19.3230854653095</v>
+        <v>16.363239115509</v>
       </c>
       <c r="R17">
-        <v>115.938512791857</v>
+        <v>98.17943469305399</v>
       </c>
       <c r="S17">
-        <v>0.006871134821947692</v>
+        <v>0.006456068312696103</v>
       </c>
       <c r="T17">
-        <v>0.005167807840735369</v>
+        <v>0.004710705917433679</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H18">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I18">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J18">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
         <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P18">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q18">
-        <v>57.260268124206</v>
+        <v>41.20165249624599</v>
       </c>
       <c r="R18">
-        <v>343.561608745236</v>
+        <v>247.2099149774759</v>
       </c>
       <c r="S18">
-        <v>0.02036129390042997</v>
+        <v>0.0162559919361941</v>
       </c>
       <c r="T18">
-        <v>0.01531381016277784</v>
+        <v>0.01186127433890247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N19">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O19">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P19">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q19">
-        <v>71.28594592477049</v>
+        <v>87.914591086234</v>
       </c>
       <c r="R19">
-        <v>427.715675548623</v>
+        <v>527.487546517404</v>
       </c>
       <c r="S19">
-        <v>0.02534871287706771</v>
+        <v>0.03468644574151084</v>
       </c>
       <c r="T19">
-        <v>0.01906486782070267</v>
+        <v>0.02530915679562275</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N20">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O20">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P20">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q20">
-        <v>80.721043313904</v>
+        <v>39.9255078852135</v>
       </c>
       <c r="R20">
-        <v>322.884173255616</v>
+        <v>159.702031540854</v>
       </c>
       <c r="S20">
-        <v>0.02870375813292663</v>
+        <v>0.01575249279842889</v>
       </c>
       <c r="T20">
-        <v>0.01439214047186678</v>
+        <v>0.007662595607294788</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N21">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O21">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P21">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q21">
-        <v>138.7776818284395</v>
+        <v>44.88348018981199</v>
       </c>
       <c r="R21">
-        <v>832.666090970637</v>
+        <v>269.3008811388719</v>
       </c>
       <c r="S21">
-        <v>0.04934823498206242</v>
+        <v>0.01770864632432861</v>
       </c>
       <c r="T21">
-        <v>0.03711500389312183</v>
+        <v>0.01292121163986228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H22">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I22">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J22">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N22">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O22">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P22">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q22">
-        <v>36.022156506013</v>
+        <v>52.674227779056</v>
       </c>
       <c r="R22">
-        <v>324.199408554117</v>
+        <v>474.068050011504</v>
       </c>
       <c r="S22">
-        <v>0.01280919107740183</v>
+        <v>0.02078246308445039</v>
       </c>
       <c r="T22">
-        <v>0.01445076536815304</v>
+        <v>0.02274605853493911</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H23">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I23">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J23">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
         <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P23">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q23">
-        <v>106.7447713590796</v>
+        <v>132.6305392924195</v>
       </c>
       <c r="R23">
-        <v>960.702942231716</v>
+        <v>1193.674853631776</v>
       </c>
       <c r="S23">
-        <v>0.03795758792574735</v>
+        <v>0.05232899280986581</v>
       </c>
       <c r="T23">
-        <v>0.04282207937577841</v>
+        <v>0.05727320812219758</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H24">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I24">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J24">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N24">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O24">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P24">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q24">
-        <v>132.8914838880848</v>
+        <v>283.0022322163449</v>
       </c>
       <c r="R24">
-        <v>1196.023354992763</v>
+        <v>2547.020089947104</v>
       </c>
       <c r="S24">
-        <v>0.04725515001851152</v>
+        <v>0.1116577060896525</v>
       </c>
       <c r="T24">
-        <v>0.05331117954506258</v>
+        <v>0.122207493321258</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H25">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I25">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J25">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N25">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O25">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P25">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q25">
-        <v>150.4804220217493</v>
+        <v>128.522554837384</v>
       </c>
       <c r="R25">
-        <v>902.8825321304961</v>
+        <v>771.135329024304</v>
       </c>
       <c r="S25">
-        <v>0.05350963590319478</v>
+        <v>0.05070819951325829</v>
       </c>
       <c r="T25">
-        <v>0.04024481008466667</v>
+        <v>0.03699951796355123</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H26">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I26">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J26">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N26">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O26">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P26">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q26">
-        <v>258.7097895592552</v>
+        <v>144.4825588837191</v>
       </c>
       <c r="R26">
-        <v>2328.388106033297</v>
+        <v>1300.343029953472</v>
       </c>
       <c r="S26">
-        <v>0.09199513436975244</v>
+        <v>0.05700517260438582</v>
       </c>
       <c r="T26">
-        <v>0.1037848599303317</v>
+        <v>0.06239120876022757</v>
       </c>
     </row>
   </sheetData>
